--- a/input/country_out1.xlsx
+++ b/input/country_out1.xlsx
@@ -458,397 +458,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:F31"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="3:6">
-      <c r="D3" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
-      <c r="C4" s="1">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>8425333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1955</v>
+      </c>
+      <c r="C3">
+        <v>9712569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1962</v>
+      </c>
+      <c r="C4">
+        <v>56839289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1967</v>
+      </c>
+      <c r="C5">
+        <v>9556500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1972</v>
+      </c>
+      <c r="C6">
+        <v>100840058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>6978607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1982</v>
+      </c>
+      <c r="C8">
+        <v>25201900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1982</v>
+      </c>
+      <c r="C9">
+        <v>1000281000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1982</v>
+      </c>
+      <c r="C10">
+        <v>45681811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1982</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>8425333</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
-      <c r="C5" s="1">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1987</v>
+      </c>
+      <c r="C12">
+        <v>55630100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1007</v>
+      </c>
+      <c r="C13">
+        <v>82400996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>7733250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>1955</v>
+      </c>
+      <c r="C15">
+        <v>3640876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1972</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1962</v>
+      </c>
+      <c r="C17">
+        <v>99028000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1967</v>
+      </c>
+      <c r="C18">
+        <v>2693585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1982</v>
+      </c>
+      <c r="C19">
+        <v>56535636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20">
+        <v>1987</v>
+      </c>
+      <c r="C20">
+        <v>7824747</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1987</v>
+      </c>
+      <c r="C21">
+        <v>1042663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1992</v>
+      </c>
+      <c r="C22">
+        <v>3437674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>1955</v>
-      </c>
-      <c r="F5">
-        <v>9712569</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>1962</v>
-      </c>
-      <c r="F6">
-        <v>56839289</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
+      <c r="C23">
+        <v>91462088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>1967</v>
       </c>
-      <c r="F7">
-        <v>9556500</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>1972</v>
-      </c>
-      <c r="F8">
-        <v>100840058</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <v>6978607</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1982</v>
-      </c>
-      <c r="F10">
-        <v>25201900</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>1982</v>
-      </c>
-      <c r="F11">
-        <v>1000281000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1982</v>
-      </c>
-      <c r="F12">
-        <v>45681811</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="C13" s="1">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>1982</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>1987</v>
-      </c>
-      <c r="F14">
-        <v>55630100</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="C15" s="1">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>1007</v>
-      </c>
-      <c r="F15">
-        <v>82400996</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="C16" s="1">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>7733250</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="1">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>1955</v>
-      </c>
-      <c r="F17">
-        <v>3640876</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="C18" s="1">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>1972</v>
-      </c>
-      <c r="F18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="1">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>1962</v>
-      </c>
-      <c r="F19">
-        <v>99028000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="1">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>1967</v>
-      </c>
-      <c r="F20">
-        <v>2693585</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="1">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>1982</v>
-      </c>
-      <c r="F21">
-        <v>56535636</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="1">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>1987</v>
-      </c>
-      <c r="F22">
-        <v>7824747</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="1">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23">
-        <v>1987</v>
-      </c>
-      <c r="F23">
-        <v>1042663</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="1">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24">
+      <c r="C24">
+        <v>1977600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1977</v>
+      </c>
+      <c r="C25">
+        <v>6316424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <v>1992</v>
       </c>
-      <c r="F24">
-        <v>3437674</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="1">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>91462088</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="1">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26">
-        <v>1967</v>
-      </c>
-      <c r="F26">
-        <v>1977600</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" s="1">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27">
-        <v>1977</v>
-      </c>
-      <c r="F27">
-        <v>6316424</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="C28" s="1">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28">
-        <v>1992</v>
-      </c>
-      <c r="F28">
+      <c r="C26">
         <v>57866349</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
-      <c r="C29" s="1">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29">
+      <c r="B27">
         <v>2007</v>
       </c>
-      <c r="F29">
+      <c r="C27">
         <v>301139947</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="1">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30">
+      <c r="C28">
         <v>2672000</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
-      <c r="C31" s="1">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
+      <c r="B29">
         <v>2007</v>
       </c>
-      <c r="F31">
+      <c r="C29">
         <v>12311143</v>
       </c>
     </row>
